--- a/PageObjectModel/data/PalmOilMillCreateNewDO.xlsx
+++ b/PageObjectModel/data/PalmOilMillCreateNewDO.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>UserName</t>
   </si>
@@ -25,6 +25,9 @@
     <t>partner</t>
   </si>
   <si>
+    <t>entityReference</t>
+  </si>
+  <si>
     <t>VehicleNumber</t>
   </si>
   <si>
@@ -55,7 +58,10 @@
     <t>passwordgmas123</t>
   </si>
   <si>
-    <t>Chris Mark</t>
+    <t>Jendarata Palm Oil Mill</t>
+  </si>
+  <si>
+    <t>DO-Plantation-001-20200820</t>
   </si>
   <si>
     <t>KA 01 2020</t>
@@ -70,10 +76,10 @@
     <t>Transport</t>
   </si>
   <si>
-    <t>Crude Palm Oil (#CPO)</t>
-  </si>
-  <si>
-    <t>88</t>
+    <t>Fresh fruit bunch (#FFB)</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t>newRemarks</t>
@@ -84,10 +90,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -106,15 +112,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -128,8 +128,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -140,30 +141,6 @@
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -177,7 +154,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,6 +175,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -198,30 +211,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -229,6 +220,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -236,7 +242,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,187 +263,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,11 +472,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -478,8 +490,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -509,16 +521,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -538,21 +550,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -563,10 +560,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -575,139 +587,133 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -725,6 +731,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1047,27 +1054,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="16.6666666666667" defaultRowHeight="14.4" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="16.5555555555556" customWidth="1"/>
-    <col min="2" max="2" width="17.5555555555556" customWidth="1"/>
-    <col min="3" max="3" width="11.4444444444444" customWidth="1"/>
-    <col min="4" max="4" width="14.6666666666667" customWidth="1"/>
-    <col min="5" max="5" width="11.6666666666667" customWidth="1"/>
-    <col min="6" max="6" width="18.2222222222222" customWidth="1"/>
-    <col min="7" max="7" width="24.1111111111111" customWidth="1"/>
-    <col min="8" max="8" width="20.7777777777778" customWidth="1"/>
-    <col min="9" max="10" width="8.66666666666667" customWidth="1"/>
-    <col min="11" max="11" width="12.4444444444444" customWidth="1"/>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="16.8888888888889" customWidth="1"/>
+    <col min="3" max="3" width="21.5555555555556" customWidth="1"/>
+    <col min="4" max="4" width="27.5555555555556" customWidth="1"/>
+    <col min="5" max="5" width="14.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="11.6666666666667" customWidth="1"/>
+    <col min="7" max="7" width="18.2222222222222" customWidth="1"/>
+    <col min="8" max="8" width="24.1111111111111" customWidth="1"/>
+    <col min="9" max="9" width="20.7777777777778" customWidth="1"/>
+    <col min="10" max="11" width="8.66666666666667" customWidth="1"/>
+    <col min="12" max="12" width="12.4444444444444" customWidth="1"/>
+    <col min="13" max="16384" width="16.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1101,45 +1110,51 @@
       <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="A2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="B2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>15</v>
       </c>
+      <c r="E2" s="8" t="s">
+        <v>16</v>
+      </c>
       <c r="F2" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="H2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>9</v>
+      <c r="I2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>20</v>
+        <v>10</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="sales@gmas.com"/>
+    <hyperlink ref="A2" r:id="rId1" display="sales@gmas.com" tooltip="mailto:sales@gmas.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/PageObjectModel/data/PalmOilMillCreateNewDO.xlsx
+++ b/PageObjectModel/data/PalmOilMillCreateNewDO.xlsx
@@ -90,10 +90,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -112,9 +112,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -128,9 +149,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -138,9 +158,31 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -152,16 +194,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,72 +211,38 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,13 +263,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -281,169 +431,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,6 +472,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -487,15 +496,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -507,6 +507,26 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,30 +569,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -584,136 +587,133 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1057,7 +1057,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.6666666666667" defaultRowHeight="14.4" outlineLevelRow="1"/>

--- a/PageObjectModel/data/PalmOilMillCreateNewDO.xlsx
+++ b/PageObjectModel/data/PalmOilMillCreateNewDO.xlsx
@@ -58,7 +58,7 @@
     <t>passwordgmas123</t>
   </si>
   <si>
-    <t>Jendarata Palm Oil Mill</t>
+    <t>Gunung Mas Plantations Sdn. Bhd.</t>
   </si>
   <si>
     <t>DO-Plantation-001-20200820</t>
@@ -91,9 +91,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -113,13 +113,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -127,7 +120,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -135,7 +128,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -150,7 +143,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -158,6 +158,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -165,7 +173,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -180,9 +188,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -201,6 +209,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -209,9 +233,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,29 +243,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,37 +263,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -305,7 +377,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -317,127 +437,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,24 +474,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,31 +507,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -569,151 +551,169 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1057,14 +1057,14 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.6666666666667" defaultRowHeight="14.4" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="16.8888888888889" customWidth="1"/>
-    <col min="3" max="3" width="21.5555555555556" customWidth="1"/>
+    <col min="3" max="3" width="31.6666666666667" customWidth="1"/>
     <col min="4" max="4" width="27.5555555555556" customWidth="1"/>
     <col min="5" max="5" width="14.6666666666667" customWidth="1"/>
     <col min="6" max="6" width="11.6666666666667" customWidth="1"/>
